--- a/config.xlsx
+++ b/config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>key</t>
   </si>
@@ -127,19 +127,16 @@
     <t>File_path</t>
   </si>
   <si>
+    <t>/STFS0029M/CDMS</t>
+  </si>
+  <si>
     <t>/mnt/pythonFiles/csv</t>
   </si>
   <si>
     <t>source_path</t>
   </si>
   <si>
-    <t>/STFS0029M/CDMS</t>
-  </si>
-  <si>
     <t>replace_string</t>
-  </si>
-  <si>
-    <t>cdms files</t>
   </si>
   <si>
     <t>replace_with</t>
@@ -818,7 +815,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -826,9 +823,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1364,8 +1358,8 @@
   <sheetPr/>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1528,22 +1522,22 @@
       <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1551,63 +1545,63 @@
         <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
         <v>42</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
         <v>44</v>
-      </c>
-      <c r="B35" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
         <v>46</v>
-      </c>
-      <c r="B36" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
         <v>48</v>
-      </c>
-      <c r="B37" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
         <v>50</v>
-      </c>
-      <c r="B38" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
         <v>54</v>
-      </c>
-      <c r="B43" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -28,19 +28,19 @@
     <t>CDMS_file1</t>
   </si>
   <si>
+    <t>CUSTOMER_INDIVIDUAL.csv</t>
+  </si>
+  <si>
+    <t>CDMS_file2</t>
+  </si>
+  <si>
+    <t>CUSTOMER_IDENTIFICATION.csv</t>
+  </si>
+  <si>
+    <t>CDMS_file3</t>
+  </si>
+  <si>
     <t>CUSTOMER_ADDRESS.csv</t>
-  </si>
-  <si>
-    <t>CDMS_file2</t>
-  </si>
-  <si>
-    <t>CUSTOMER_IDENTIFICATION.csv</t>
-  </si>
-  <si>
-    <t>CDMS_file3</t>
-  </si>
-  <si>
-    <t>CUSTOMER_INDIVIDUAL.csv</t>
   </si>
   <si>
     <t>CDMS_file4</t>
@@ -1358,8 +1358,8 @@
   <sheetPr/>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -127,10 +127,10 @@
     <t>File_path</t>
   </si>
   <si>
+    <t>/STFS0029M/CDMS/AUG/2023-08-01</t>
+  </si>
+  <si>
     <t>/STFS0029M/CDMS</t>
-  </si>
-  <si>
-    <t>/mnt/pythonFiles/csv</t>
   </si>
   <si>
     <t>source_path</t>
@@ -1358,8 +1358,8 @@
   <sheetPr/>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1525,7 +1525,7 @@
       <c r="B29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
         <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2">

--- a/config.xlsx
+++ b/config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>key</t>
   </si>
@@ -127,22 +127,25 @@
     <t>File_path</t>
   </si>
   <si>
+    <t>/STFS0029M/PPG Extractor</t>
+  </si>
+  <si>
     <t>/STFS0029M/CDMS/AUG/2023-08-01</t>
   </si>
   <si>
-    <t>/STFS0029M/CDMS</t>
-  </si>
-  <si>
     <t>source_path</t>
   </si>
   <si>
     <t>replace_string</t>
   </si>
   <si>
+    <t>PPG Extractor</t>
+  </si>
+  <si>
     <t>replace_with</t>
   </si>
   <si>
-    <t>migration_data</t>
+    <t>migration_transaction</t>
   </si>
   <si>
     <t>ADDRESS1</t>
@@ -1356,13 +1359,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="25.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="255.714285714286" customWidth="1"/>
@@ -1518,7 +1521,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1526,10 +1529,16 @@
         <v>37</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="H29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -1537,6 +1546,9 @@
         <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1545,63 +1557,63 @@
         <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9630"/>
+    <workbookView windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,6 +127,9 @@
     <t>File_path</t>
   </si>
   <si>
+    <t>/STFS0029M/CDMS</t>
+  </si>
+  <si>
     <t>/STFS0029M/PPG Extractor</t>
   </si>
   <si>
@@ -139,13 +142,10 @@
     <t>replace_string</t>
   </si>
   <si>
-    <t>PPG Extractor</t>
-  </si>
-  <si>
     <t>replace_with</t>
   </si>
   <si>
-    <t>migration_transaction</t>
+    <t>migration_data</t>
   </si>
   <si>
     <t>ADDRESS1</t>
@@ -1361,14 +1361,14 @@
   <sheetPr/>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14545454545454" defaultRowHeight="14.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="25.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="255.714285714286" customWidth="1"/>
+    <col min="1" max="1" width="25.2818181818182" customWidth="1"/>
+    <col min="2" max="2" width="255.718181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1529,35 +1529,35 @@
         <v>37</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2">

--- a/config.xlsx
+++ b/config.xlsx
@@ -127,9 +127,6 @@
     <t>File_path</t>
   </si>
   <si>
-    <t>/STFS0029M/CDMS</t>
-  </si>
-  <si>
     <t>/STFS0029M/PPG Extractor</t>
   </si>
   <si>
@@ -142,10 +139,13 @@
     <t>replace_string</t>
   </si>
   <si>
+    <t>PPG Extractor</t>
+  </si>
+  <si>
     <t>replace_with</t>
   </si>
   <si>
-    <t>migration_data</t>
+    <t>migration_transaction</t>
   </si>
   <si>
     <t>ADDRESS1</t>
@@ -1361,8 +1361,8 @@
   <sheetPr/>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14545454545454" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -1529,35 +1529,35 @@
         <v>37</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2">
